--- a/Autotools test cases.xlsx
+++ b/Autotools test cases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
   <si>
     <t>S.No</t>
   </si>
@@ -62,76 +62,7 @@
     <t>NO</t>
   </si>
   <si>
-    <t>Does nothing</t>
-  </si>
-  <si>
-    <t>2. Enter the url"http://24.106.206.2:10080/autotools/home.html"</t>
-  </si>
-  <si>
     <t>UI</t>
-  </si>
-  <si>
-    <t>1. launch web browser</t>
-  </si>
-  <si>
-    <t>3. Click enter button</t>
-  </si>
-  <si>
-    <t>To verify the login link navigate to login page.</t>
-  </si>
-  <si>
-    <t>4.Click on login  link</t>
-  </si>
-  <si>
-    <t>1. A page with a Tittle" Autotools" and a nav bar with a login link  displays.</t>
-  </si>
-  <si>
-    <t>A page with a tittle"Login to Auto tools"and a text boxes with a lables  Email and password  should display.</t>
-  </si>
-  <si>
-    <t>2.A page with a tittle"Login to Auto tools" Should display.</t>
-  </si>
-  <si>
-    <t>To Verify the Loin to autotools page  has text boxes with a lables Email and Password .</t>
-  </si>
-  <si>
-    <t>A page with a tittle"Login to Auto tools"  should display.</t>
-  </si>
-  <si>
-    <t>To validate login functionality  using Registered email Id and valid password.</t>
-  </si>
-  <si>
-    <t>functional</t>
-  </si>
-  <si>
-    <t>Auto tool page is up&amp; running.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on login </t>
-  </si>
-  <si>
-    <t>A page with a tittle"Login to Auto tools" Should display.</t>
-  </si>
-  <si>
-    <t>2.Enter the register user email Id in Email infobox(text box)</t>
-  </si>
-  <si>
-    <t>email id should display in email id text box</t>
-  </si>
-  <si>
-    <t>3. enter the valide password in password infobox (text box)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password  should display in  password text box </t>
-  </si>
-  <si>
-    <t>4. click on sign button</t>
-  </si>
-  <si>
-    <t>it should not show any error message.</t>
-  </si>
-  <si>
-    <t>A Home page with a tittle"Auto  tools" and a nav Sbar with three links  should display.</t>
   </si>
   <si>
     <t>To verify that the autotools application is working.</t>
@@ -182,6 +113,79 @@
   </si>
   <si>
     <t>The autotools login page should have one "login" link in the nav bar</t>
+  </si>
+  <si>
+    <t>To verify that the login link on nav bar navigates to autotools login page.</t>
+  </si>
+  <si>
+    <t>2. Enter button is clicked and a page with login link in a nav bar is displayed</t>
+  </si>
+  <si>
+    <t>2. Click enter button.</t>
+  </si>
+  <si>
+    <t>3. Click on the login link displayed in the nav bar.</t>
+  </si>
+  <si>
+    <t>3. The login link is clicked.</t>
+  </si>
+  <si>
+    <t>4. Observe the page that is displayed</t>
+  </si>
+  <si>
+    <t>4. The page displayed in observed. And a login page with header "login to autotools" should be displayed</t>
+  </si>
+  <si>
+    <t>The login link in autotools nav bar should navigate to Autotools login page.</t>
+  </si>
+  <si>
+    <t>To verify that the autotools login page has a textbox with label "email".</t>
+  </si>
+  <si>
+    <t>2. Enter button is clicked.</t>
+  </si>
+  <si>
+    <t>3. Observe the page displayed.</t>
+  </si>
+  <si>
+    <t>3. A login page with a textbox with label "email" should be displayed</t>
+  </si>
+  <si>
+    <t>The login page of autotools should have a textbox with label "email"</t>
+  </si>
+  <si>
+    <t>1. URL to autotools application.
+2. Valid email and password</t>
+  </si>
+  <si>
+    <t>To verify that autotools welcome page is displayed when a valid email and password is entered in autotools login page</t>
+  </si>
+  <si>
+    <t>1. Enter the URL and click enter</t>
+  </si>
+  <si>
+    <t>1. Autotools login page is displayed</t>
+  </si>
+  <si>
+    <t>2. Enter email and password in email and password textboxes respectively</t>
+  </si>
+  <si>
+    <t>2. Email and passwords are entered in the textboxes</t>
+  </si>
+  <si>
+    <t>3. Click on "sign in" button</t>
+  </si>
+  <si>
+    <t>3. Sign in button is clicked</t>
+  </si>
+  <si>
+    <t>4. Note the page displayed.</t>
+  </si>
+  <si>
+    <t>4. The displayed page is observed. A welcome page with "welcome to autotools" text is displayed</t>
+  </si>
+  <si>
+    <t>The autotools welcome page is displayed when a valid email and password is entered in the autotools login page</t>
   </si>
 </sst>
 </file>
@@ -279,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -341,6 +345,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,11 +670,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,7 +683,7 @@
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.42578125" customWidth="1"/>
+    <col min="6" max="6" width="47.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.42578125" customWidth="1"/>
     <col min="8" max="8" width="20.28515625" customWidth="1"/>
     <col min="9" max="9" width="13.140625" customWidth="1"/>
@@ -715,22 +729,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="11" t="s">
@@ -739,10 +753,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E4" s="4" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -750,10 +764,10 @@
     </row>
     <row r="5" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -775,32 +789,32 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E8" s="4" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="9"/>
@@ -808,10 +822,10 @@
     </row>
     <row r="9" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E9" s="4" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="9"/>
@@ -828,370 +842,397 @@
       <c r="H10" s="22"/>
       <c r="I10" s="23"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E11" s="3"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>3</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="D11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="E12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="E13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="18"/>
+    </row>
+    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="11" t="s">
+      <c r="F16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="E15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="E16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-    </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="3"/>
       <c r="E17" s="4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="G17" s="27"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" s="3"/>
-      <c r="E20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+    <row r="18" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="27"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-    </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="25"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F23" s="3"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-    </row>
-    <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>5</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="E25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="2"/>
-      <c r="E26" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="11"/>
-    </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="E27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="11"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="11"/>
+        <v>48</v>
+      </c>
+      <c r="F22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="25"/>
+    </row>
+    <row r="23" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="2"/>
+      <c r="E23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="25"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="9"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="11"/>
     </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="11"/>
+    </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="11"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="11"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="11"/>
-    </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+      <c r="C35" s="3"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
       <c r="I35" s="11"/>
     </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="11"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="11"/>
+    </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
-      <c r="C38" s="3"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="11"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="11"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="11"/>
-    </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C41" s="3"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="11"/>
     </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="11"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="11"/>
+    </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C44" s="3"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
+      <c r="F44" s="3"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="11"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="11"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="11"/>
-    </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="3"/>
+      <c r="F47" s="4"/>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
       <c r="I47" s="11"/>
     </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="11"/>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="11"/>
+    </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
       <c r="I50" s="11"/>
     </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="11"/>
-    </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="11"/>
-    </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C53" s="5"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="I53" s="11"/>
     </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="11"/>
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="11"/>
+    </row>
     <row r="56" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C56" s="5"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
       <c r="I56" s="11"/>
     </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="11"/>
-    </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="11"/>
-    </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="11"/>
-    </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="I50:I53"/>
-    <mergeCell ref="G56:G59"/>
-    <mergeCell ref="H56:H59"/>
-    <mergeCell ref="I56:I59"/>
+  <mergeCells count="26">
+    <mergeCell ref="G47:G50"/>
+    <mergeCell ref="H47:H50"/>
+    <mergeCell ref="I47:I50"/>
+    <mergeCell ref="G53:G56"/>
+    <mergeCell ref="H53:H56"/>
+    <mergeCell ref="I53:I56"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="G7:G9"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I16:I18"/>
     <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="I26:I29"/>
-    <mergeCell ref="G32:G35"/>
-    <mergeCell ref="H32:H35"/>
-    <mergeCell ref="I32:I35"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="I38:I41"/>
-    <mergeCell ref="G44:G47"/>
-    <mergeCell ref="H44:H47"/>
-    <mergeCell ref="I44:I47"/>
+    <mergeCell ref="G29:G32"/>
+    <mergeCell ref="H29:H32"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="G41:G44"/>
+    <mergeCell ref="H41:H44"/>
+    <mergeCell ref="I41:I44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
